--- a/CLASES/ASISTENCIA/OWNDATA.xlsx
+++ b/CLASES/ASISTENCIA/OWNDATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyako\Downloads\AATUK\EIGHTH\TESISI\CLASES\ASISTENCIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyako\Downloads\AATUK\EIGHTH\TESISI\SUPER-TESIS\CLASES\ASISTENCIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B16387-1103-477F-890F-F3C98A93DAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1D402-9517-48C5-B5E0-8B733AF44805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="9" xr2:uid="{8A96CDCF-8339-4B98-BDBA-150EA583BBF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="6" xr2:uid="{8A96CDCF-8339-4B98-BDBA-150EA583BBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Participación 7 C" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,6 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'PRE-TEST WPM'!$D$3:$D$34</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'PRE-TEST WPM'!$D$3:$D$34</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'PRE-TEST WPM'!$D$3:$D$34</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1665,7 +1660,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1948,12 +1943,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1967,6 +1956,17 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1985,10 +1985,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2027,18 +2024,12 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Énfasis6" xfId="4" builtinId="49"/>
@@ -2639,7 +2630,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection sqref="A1:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,7 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905370C5-E96D-43FE-B56D-B1ED121CE7BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2955,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5A0928-F2F0-41EF-9997-A123D38B6FE5}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,52 +3224,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="120" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="117" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117" t="s">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117" t="s">
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117" t="s">
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117" t="s">
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="16" t="s">
         <v>76</v>
       </c>
@@ -4322,61 +4313,59 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="114" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="112" t="s">
         <v>316</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="112" t="s">
         <v>317</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="112" t="s">
         <v>318</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="112" t="s">
         <v>319</v>
       </c>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="112" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4390,7 +4379,7 @@
       <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>6</v>
       </c>
       <c r="E3" s="2">
@@ -4408,7 +4397,7 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="142">
+      <c r="J3" s="118">
         <f>E3+F3+G3+H3+I3</f>
         <v>6</v>
       </c>
@@ -4423,7 +4412,7 @@
       <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>20</v>
       </c>
       <c r="E4" s="2">
@@ -4441,8 +4430,8 @@
       <c r="I4" s="2">
         <v>4</v>
       </c>
-      <c r="J4" s="142">
-        <f t="shared" ref="J4:L34" si="0">E4+F4+G4+H4+I4</f>
+      <c r="J4" s="118">
+        <f t="shared" ref="J4:J34" si="0">E4+F4+G4+H4+I4</f>
         <v>14</v>
       </c>
     </row>
@@ -4456,7 +4445,7 @@
       <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>20</v>
       </c>
       <c r="E5" s="2">
@@ -4474,7 +4463,7 @@
       <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="142">
+      <c r="J5" s="118">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4508,7 +4497,7 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="142">
+      <c r="J6" s="118">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4523,7 +4512,7 @@
       <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="2">
@@ -4541,7 +4530,7 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="142">
+      <c r="J7" s="118">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4556,7 +4545,7 @@
       <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>4</v>
       </c>
       <c r="E8" s="2">
@@ -4574,7 +4563,7 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="142">
+      <c r="J8" s="118">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4589,7 +4578,7 @@
       <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>6</v>
       </c>
       <c r="E9" s="2">
@@ -4607,7 +4596,7 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="142">
+      <c r="J9" s="118">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4622,7 +4611,7 @@
       <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>12</v>
       </c>
       <c r="E10" s="2">
@@ -4640,7 +4629,7 @@
       <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="142">
+      <c r="J10" s="118">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4655,7 +4644,7 @@
       <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>24</v>
       </c>
       <c r="E11" s="2">
@@ -4673,7 +4662,7 @@
       <c r="I11" s="2">
         <v>4</v>
       </c>
-      <c r="J11" s="142">
+      <c r="J11" s="118">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -4688,7 +4677,7 @@
       <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <v>16</v>
       </c>
       <c r="E12" s="2">
@@ -4706,7 +4695,7 @@
       <c r="I12" s="2">
         <v>2</v>
       </c>
-      <c r="J12" s="142">
+      <c r="J12" s="118">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4721,7 +4710,7 @@
       <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>3</v>
       </c>
       <c r="E13" s="2">
@@ -4739,7 +4728,7 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="142">
+      <c r="J13" s="118">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4754,7 +4743,7 @@
       <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>25</v>
       </c>
       <c r="E14" s="2">
@@ -4772,7 +4761,7 @@
       <c r="I14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="142">
+      <c r="J14" s="118">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4787,7 +4776,7 @@
       <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <v>12</v>
       </c>
       <c r="E15" s="2">
@@ -4805,7 +4794,7 @@
       <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="142">
+      <c r="J15" s="118">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4820,7 +4809,7 @@
       <c r="C16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <v>10</v>
       </c>
       <c r="E16" s="2">
@@ -4838,7 +4827,7 @@
       <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="142">
+      <c r="J16" s="118">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4853,7 +4842,7 @@
       <c r="C17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>7</v>
       </c>
       <c r="E17" s="2">
@@ -4871,7 +4860,7 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="142">
+      <c r="J17" s="118">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4886,7 +4875,7 @@
       <c r="C18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <v>17</v>
       </c>
       <c r="E18" s="2">
@@ -4904,7 +4893,7 @@
       <c r="I18" s="2">
         <v>3</v>
       </c>
-      <c r="J18" s="142">
+      <c r="J18" s="118">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4919,7 +4908,7 @@
       <c r="C19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>15</v>
       </c>
       <c r="E19" s="2">
@@ -4937,7 +4926,7 @@
       <c r="I19" s="2">
         <v>2</v>
       </c>
-      <c r="J19" s="142">
+      <c r="J19" s="118">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4952,7 +4941,7 @@
       <c r="C20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <v>18</v>
       </c>
       <c r="E20" s="2">
@@ -4970,7 +4959,7 @@
       <c r="I20" s="2">
         <v>2</v>
       </c>
-      <c r="J20" s="142">
+      <c r="J20" s="118">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4985,7 +4974,7 @@
       <c r="C21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <v>29</v>
       </c>
       <c r="E21" s="2">
@@ -5003,7 +4992,7 @@
       <c r="I21" s="2">
         <v>3</v>
       </c>
-      <c r="J21" s="142">
+      <c r="J21" s="118">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5018,7 +5007,7 @@
       <c r="C22" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <v>14</v>
       </c>
       <c r="E22" s="2">
@@ -5036,7 +5025,7 @@
       <c r="I22" s="2">
         <v>3</v>
       </c>
-      <c r="J22" s="142">
+      <c r="J22" s="118">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5051,7 +5040,7 @@
       <c r="C23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <v>16</v>
       </c>
       <c r="E23" s="2">
@@ -5069,7 +5058,7 @@
       <c r="I23" s="2">
         <v>2</v>
       </c>
-      <c r="J23" s="142">
+      <c r="J23" s="118">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5084,7 +5073,7 @@
       <c r="C24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <v>17</v>
       </c>
       <c r="E24" s="2">
@@ -5102,7 +5091,7 @@
       <c r="I24" s="2">
         <v>2</v>
       </c>
-      <c r="J24" s="142">
+      <c r="J24" s="118">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5117,7 +5106,7 @@
       <c r="C25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <v>28</v>
       </c>
       <c r="E25" s="2">
@@ -5135,7 +5124,7 @@
       <c r="I25" s="2">
         <v>2</v>
       </c>
-      <c r="J25" s="142">
+      <c r="J25" s="118">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5150,7 +5139,7 @@
       <c r="C26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <v>9</v>
       </c>
       <c r="E26" s="2">
@@ -5168,7 +5157,7 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="142">
+      <c r="J26" s="118">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5183,7 +5172,7 @@
       <c r="C27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <v>19</v>
       </c>
       <c r="E27" s="2">
@@ -5201,7 +5190,7 @@
       <c r="I27" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="142">
+      <c r="J27" s="118">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -5216,7 +5205,7 @@
       <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <v>3</v>
       </c>
       <c r="E28" s="2">
@@ -5234,7 +5223,7 @@
       <c r="I28" s="2">
         <v>1</v>
       </c>
-      <c r="J28" s="142">
+      <c r="J28" s="118">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5249,7 +5238,7 @@
       <c r="C29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>23</v>
       </c>
       <c r="E29" s="2">
@@ -5267,7 +5256,7 @@
       <c r="I29" s="2">
         <v>3</v>
       </c>
-      <c r="J29" s="142">
+      <c r="J29" s="118">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -5282,7 +5271,7 @@
       <c r="C30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <v>13</v>
       </c>
       <c r="E30" s="2">
@@ -5300,7 +5289,7 @@
       <c r="I30" s="2">
         <v>1</v>
       </c>
-      <c r="J30" s="142">
+      <c r="J30" s="118">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5315,7 +5304,7 @@
       <c r="C31" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>31</v>
       </c>
       <c r="E31" s="2">
@@ -5333,7 +5322,7 @@
       <c r="I31" s="2">
         <v>3</v>
       </c>
-      <c r="J31" s="142">
+      <c r="J31" s="118">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -5348,7 +5337,7 @@
       <c r="C32" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <v>13</v>
       </c>
       <c r="E32" s="2">
@@ -5366,7 +5355,7 @@
       <c r="I32" s="2">
         <v>1</v>
       </c>
-      <c r="J32" s="142">
+      <c r="J32" s="118">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5381,7 +5370,7 @@
       <c r="C33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <v>20</v>
       </c>
       <c r="E33" s="2">
@@ -5399,7 +5388,7 @@
       <c r="I33" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="142">
+      <c r="J33" s="118">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -5432,7 +5421,7 @@
       <c r="I34" s="2">
         <v>1</v>
       </c>
-      <c r="J34" s="142">
+      <c r="J34" s="118">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5453,42 +5442,42 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="113" t="s">
         <v>320</v>
       </c>
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="114" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="113" t="s">
         <v>321</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="114" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="115" t="s">
+    <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="113" t="s">
         <v>322</v>
       </c>
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="115" t="s">
+    <row r="45" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="B45" s="116" t="s">
+      <c r="B45" s="114" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="115" t="s">
+    <row r="46" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="114" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5496,7 +5485,7 @@
       <c r="A48" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="114" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5504,7 +5493,7 @@
       <c r="A49" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="114" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5512,7 +5501,7 @@
       <c r="A50" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B50" s="141" t="s">
+      <c r="B50" s="117" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5520,7 +5509,7 @@
       <c r="A51" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="141" t="s">
+      <c r="B51" s="117" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5534,7 +5523,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Negrita"Resultados PreTest de Speaking</oddHeader>
   </headerFooter>
@@ -5555,7 +5544,7 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="18" max="21" width="11.42578125" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" customWidth="1"/>
-    <col min="23" max="23" width="119.7109375" style="113" customWidth="1"/>
+    <col min="23" max="23" width="119.7109375" style="111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,56 +5554,56 @@
       <c r="B1" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="132" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="134" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="107"/>
       <c r="B2" s="109"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="133"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="135"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -5652,7 +5641,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="112" t="s">
+      <c r="W3" s="110" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5723,7 +5712,7 @@
       <c r="V4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="112" t="s">
+      <c r="W4" s="110" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5772,7 +5761,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="112" t="s">
+      <c r="W5" s="110" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5822,7 +5811,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="112" t="s">
+      <c r="W6" s="110" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5857,7 +5846,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="112" t="s">
+      <c r="W7" s="110" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5896,7 +5885,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="112" t="s">
+      <c r="W8" s="110" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5933,7 +5922,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="110" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5976,7 +5965,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="112" t="s">
+      <c r="W10" s="110" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6037,7 +6026,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="112" t="s">
+      <c r="W11" s="110" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6098,7 +6087,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="112" t="s">
+      <c r="W12" s="110" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6135,7 +6124,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="112" t="s">
+      <c r="W13" s="110" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6178,7 +6167,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="112" t="s">
+      <c r="W14" s="110" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6233,7 +6222,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="112" t="s">
+      <c r="W15" s="110" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6284,7 +6273,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="112" t="s">
+      <c r="W16" s="110" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6327,7 +6316,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="112" t="s">
+      <c r="W17" s="110" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6388,7 +6377,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="112" t="s">
+      <c r="W18" s="110" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6449,7 +6438,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="112" t="s">
+      <c r="W19" s="110" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6514,7 +6503,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="112" t="s">
+      <c r="W20" s="110" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6585,7 +6574,7 @@
       <c r="V21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="W21" s="112" t="s">
+      <c r="W21" s="110" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6636,7 +6625,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="112" t="s">
+      <c r="W22" s="110" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6699,7 +6688,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="112" t="s">
+      <c r="W23" s="110" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6758,7 +6747,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="112" t="s">
+      <c r="W24" s="110" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6827,7 +6816,7 @@
         <v>159</v>
       </c>
       <c r="V25" s="2"/>
-      <c r="W25" s="112" t="s">
+      <c r="W25" s="110" t="s">
         <v>259</v>
       </c>
     </row>
@@ -6874,7 +6863,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="112" t="s">
+      <c r="W26" s="110" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6923,7 +6912,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="112" t="s">
+      <c r="W27" s="110" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6960,7 +6949,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="112" t="s">
+      <c r="W28" s="110" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7013,7 +7002,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="112" t="s">
+      <c r="W29" s="110" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7070,7 +7059,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="112" t="s">
+      <c r="W30" s="110" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7139,7 +7128,7 @@
         <v>140</v>
       </c>
       <c r="V31" s="2"/>
-      <c r="W31" s="112" t="s">
+      <c r="W31" s="110" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7192,7 +7181,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="112" t="s">
+      <c r="W32" s="110" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7243,7 +7232,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="112" t="s">
+      <c r="W33" s="110" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7257,16 +7246,16 @@
       <c r="C34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="140" t="s">
+      <c r="D34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E34" s="140" t="s">
+      <c r="E34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="140" t="s">
+      <c r="F34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="140" t="s">
+      <c r="G34" s="2" t="s">
         <v>170</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -7290,7 +7279,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="112" t="s">
+      <c r="W34" s="110" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7327,7 +7316,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D27" sqref="C3:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7339,70 +7328,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="134" t="s">
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="136" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="134"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="136"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -8429,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6B244A-582C-4FD8-A5AA-CB5EE4E3190B}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9907,7 +9896,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
